--- a/_Bank Bug Reports V1.xlsx
+++ b/_Bank Bug Reports V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Bank\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Рабочий стол\QA\Bank\banking-qa-web-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2787CD-22ED-4F03-A4B4-9960504F46E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CABD613-F04A-4BF5-A3CF-79BEBE76247A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{516D961C-C0DB-4C64-8AB3-91904E5CD236}"/>
+    <workbookView xWindow="2130" yWindow="885" windowWidth="20355" windowHeight="10920" xr2:uid="{516D961C-C0DB-4C64-8AB3-91904E5CD236}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug reports" sheetId="1" r:id="rId1"/>
@@ -48,12 +48,6 @@
     <t>"Number of Transaction must not be blank" error message</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Number of Transaction" meneu item
-3) Do not tipe any value in  "Number of Transaction" field
-4) Press "TAB" and move to "Submit" button</t>
-  </si>
-  <si>
     <t>"Number of Transaction" field is not implemented as required field in "Customized Statement Form" on "Customized Statement" page</t>
   </si>
   <si>
@@ -63,12 +57,6 @@
     <t>"First characters can not be 0" error message</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Number of Transaction" meneu item
-3) Tipe "01" in "Number of Transaction" field
-4) Press "TAB" and move to "Submit" button</t>
-  </si>
-  <si>
     <t>"Number of Transaction" field accept data starting with "0" character in "Customized Statement Form" on "Customized Statement" page</t>
   </si>
   <si>
@@ -78,12 +66,6 @@
     <t xml:space="preserve">"Amount Lower Limit" cannot have space" error message </t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Number of Transaction" meneu item
-3) Tipe "1 0" in "Number of Transaction" field
-4) Press "TAB" and move to "Submit" button</t>
-  </si>
-  <si>
     <t>"Number of Transaction" field accept data with space character in "Customized Statement Form" on "Customized Statement" page</t>
   </si>
   <si>
@@ -93,12 +75,6 @@
     <t>"First characters can not be spase" error message</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Number of Transaction" meneu item
-3) Tipe " 10" in "Number of Transaction" field (start with space character)
-4) Press "TAB" and move to "Submit" button</t>
-  </si>
-  <si>
     <t>"Number of Transaction" field accept data starting with space character in "Customized Statement Form" on "Customized Statement" page</t>
   </si>
   <si>
@@ -108,12 +84,6 @@
     <t>"Special characters are not allowed" error message</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Number of Transaction" meneu item
-3) Tipe "1'0" in "Number of Transaction" field
-4) Press "TAB" and move to "Submit" button</t>
-  </si>
-  <si>
     <t>"Number of Transaction" field accept data with spesial characters in "Customized Statement Form" on "Customized Statement" page</t>
   </si>
   <si>
@@ -123,12 +93,6 @@
     <t>"Characters are not allowed" error message</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Number of Transaction" meneu item
-3) Tipe "1o" in "Number of Transaction" field
-4) Press "TAB" and move to "Submit" button</t>
-  </si>
-  <si>
     <t>"Number of Transaction" field accept data with letters in "Customized Statement Form" on "Customized Statement" page</t>
   </si>
   <si>
@@ -141,72 +105,36 @@
     <t>"Amount Lower Limit must not be blank" error message</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Amount Lower Limit" meneu item
-3) Do not tipe any value in  "Amount Lower Limit" field
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Amount Lower Limit" field is not implemented as required field in "Customized Statement Form" on "Customized Statement" page</t>
   </si>
   <si>
     <t>CS12</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Amount Lower Limit" meneu item
-3) Tipe "050" in "Amount Lower Limit" field
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Amount Lower Limit" field accept data starting with "0" character in "Customized Statement Form" on "Customized Statement" page</t>
   </si>
   <si>
     <t>CS11</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Amount Lower Limit" meneu item
-3) Tipe "50 0" in "Amount Lower Limit" field
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Amount Lower Limit" field accept data with space character in "Customized Statement Form" on "Customized Statement" page</t>
   </si>
   <si>
     <t>CS10</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Amount Lower Limit" meneu item
-3) Tipe " 500" in "Amount Lower Limit" field (start with space character)
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Amount Lower Limit" field accept data starting with space character in "Customized Statement Form" on "Customized Statement" page</t>
   </si>
   <si>
     <t>CS9</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Amount Lower Limit" meneu item
-3) Tipe "500$" in "Amount Lower Limit" field
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Amount Lower Limit" field accept data with spesial characters in "Customized Statement Form" on "Customized Statement" page</t>
   </si>
   <si>
     <t>CS8</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Amount Lower Limit" meneu item
-3) Tipe "S00" in "Amount Lower Limit" field
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Amount Lower Limit" field accept data with letters in "Customized Statement Form" on "Customized Statement" page</t>
   </si>
   <si>
@@ -216,12 +144,6 @@
     <t xml:space="preserve">"Account No" cannot have space" error message </t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Customized Statement" meneu item
-3) Tipe "36056 033039" in "Account No" field
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>Wrong error message shown if "Account No" field contains space character in "Customized Statement" form</t>
   </si>
   <si>
@@ -231,12 +153,6 @@
     <t>"Account No" accepted</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Customized Statement" meneu item
-3) Tipe " 36056033039" in "Account No" field (start with space character)
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Account No" field accept data starting with space character in "Customized Statement" form</t>
   </si>
   <si>
@@ -246,24 +162,12 @@
     <t xml:space="preserve">"Account No cannot have space" error message </t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Mini Statement" meneu item
-3) Tipe "36056 033039" in "Account No" field 
-4) Press "TAB" and move to "Submit" button</t>
-  </si>
-  <si>
     <t>Wrong error message shown if "Account No" field contains space character in "Mini Statement" form</t>
   </si>
   <si>
     <t>MS4</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Mini Statement" meneu item
-3) Tipe " 36056033039" in "Account No" field (start with space character)
-4) Press "TAB" and move to "Submit" button</t>
-  </si>
-  <si>
     <t>Wrong error message shown if "Account No" field start with space character in "Mini Statement" form</t>
   </si>
   <si>
@@ -279,15 +183,6 @@
     <t>Mini Statement displeyed</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Mini Statement" meneu item
-3) Tipe "360560330396" in "Account No" field 
-4) Push "Submit" button</t>
-  </si>
-  <si>
-    <t>"Mini Statement" doesn't displayed valid data tiped in "Account No" field</t>
-  </si>
-  <si>
     <t>DK5</t>
   </si>
   <si>
@@ -297,24 +192,12 @@
     <t xml:space="preserve">"Customer ID cannot have space" error message </t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Delete Customer" meneu item
-3) Tipe "12 34" in "Customer ID" field
-4) Press "TAB" and move to "Submit" button</t>
-  </si>
-  <si>
     <t>"Customer ID" field data contains space character in "Delete Customer Form"</t>
   </si>
   <si>
     <t>DK4</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Delete Customer" meneu item
-3) Tipe " 1234" in "Customer ID" field (start with space character)
-4) Press "TAB" and move to "Submit" button</t>
-  </si>
-  <si>
     <t>"Customer ID" field accept data starting with space character in "Delete Customer Form"</t>
   </si>
   <si>
@@ -324,39 +207,18 @@
     <t>Edit Customer successfully redirect to Edit Customer Page</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Delete Custome" meneu item
-3) Tipe "1234" in "Customer ID" field 
-4) Push "Submit" button</t>
-  </si>
-  <si>
-    <t>"Delete Customer Form" doesn't delete  selected account if valid data tiped in "Customer ID" field</t>
-  </si>
-  <si>
     <t>DA5</t>
   </si>
   <si>
     <t xml:space="preserve">"Telephone cannot have space" error message </t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Deletr Account" meneu item
-3) Tipe "36056 033039" in "Account No" field 
-4) Press "TAB" and move to "Submit" button</t>
-  </si>
-  <si>
     <t>Wrong error message shown if "Account No" field contains space character in "Delete Account Formr" form</t>
   </si>
   <si>
     <t>DA4</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Delete Account" meneu item
-3) Tipe " 36056033039" in "Account No" field (start with space character)
-4) Press "TAB" and move to "Submit" button</t>
-  </si>
-  <si>
     <t>Wrong error message shown if "Account No" field start with space character in "Delete Account Formr" form</t>
   </si>
   <si>
@@ -366,36 +228,15 @@
     <t>Selected account deleted</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Delete Account" meneu item
-3) Tipe "360560330396" in "Account No" field 
-4) Push "Submit" button</t>
-  </si>
-  <si>
-    <t>"Delete Account Form" doesn't delete selected account if valid data tiped in "Account No" field</t>
-  </si>
-  <si>
     <t>EA5</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Edit Account" meneu item
-3) Tipe "36056 033039" in "Account No" field 
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>Wrong error message shown if "Account No" field contains space character in "Edit Account Formr" form</t>
   </si>
   <si>
     <t>EA4</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Edit Account" meneu item
-3) Tipe " 36056033039" in "Account No" field (start with space character)
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>Wrong error message shown if "Account No" field start with space character in "Edit Account Formr" form</t>
   </si>
   <si>
@@ -405,66 +246,27 @@
     <t>"Edit Account Form"  successfully redirect to "Edit Account Page"</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Edit Account" meneu item
-3) Tipe "360560330396" in "Account No" field 
-4) Push "Submit" button</t>
-  </si>
-  <si>
-    <t>"Edit Account Form" doesn't redirect to "Edit Account Page" if valid data tiped in "Account No" field</t>
-  </si>
-  <si>
     <t>Data accepted</t>
   </si>
   <si>
     <t>"Initial deposit is required" error message</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Account" meneu item
-3) Do not tipe any value in "Initial deposit" field
-3) Press "TAB" and move to "Submit" button</t>
-  </si>
-  <si>
     <t>"Initial deposit" field is not implemented as required field in "Add new account form" from "New Account" page</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Account" meneu item
-3) Tipe "50 0" in "Initial deposit" field
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Initial deposit" field data contains space character in "Add new account form" from "New Account" page</t>
   </si>
   <si>
     <t>NK8</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Account" meneu item
-3) Tipe " 500" in "Initial deposit" field
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Initial deposit" field accept data starting with space character in "Add new account form" from "New Account" page</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Account" meneu item
-3) Tipe "500$" in "Initial deposit" field
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Initial deposit" field accept digitsr + sp. characters in "Add new account form" from "New Account" page</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Account" meneu item
-3) Tipe "S00" in "Initial deposit" field
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Initial deposit" field accept digits + letters in "Add new account form" from "New Account" page</t>
   </si>
   <si>
@@ -474,87 +276,36 @@
     <t>"Customer ID is required" error message</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Account" meneu item
-3) Do not tipe any value in "Customer ID" field
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Customer ID" field is not implemented as required field in "Add new account form" from "New Account" page</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Account" meneu item
-3) Tipe "12 34" in "Customer ID" field
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Customer ID" field data contains space character in "Add new account form" from "New Account" page</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Account" meneu item
-3) Tipe " 1234" in "Customer ID" field
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Customer ID" field accept data starting with space character in "Add new account form" from "New Account" page</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Account" meneu item
-3) Tipe "(234" in "Customer ID" field
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Customer ID" field accept digitsr + sp. characters in "Add new account form" from "New Account" page</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Account" meneu item
-3) Tipe "I234" in "Customer ID" field
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Customer ID" field accept digits + letters in "Add new account form" from "New Account" page</t>
   </si>
   <si>
     <t>EK5</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Edit Customer" meneu item
-3) Tipe "12 34" in "Customer ID" field
-4) Press "TAB" and move to "Submit" button</t>
-  </si>
-  <si>
     <t>"Customer ID" field data contains space character in "Add New Customer" form</t>
   </si>
   <si>
     <t>EK4</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Edit Customer" meneu item
-3) Tipe " 1234" in "Customer ID" field (start with space character)
-4) Press "TAB" and move to "Submit" button</t>
-  </si>
-  <si>
     <t>"Customer ID" field accept data starting with space character in "Edit Customer Form"</t>
   </si>
   <si>
     <t>EK1</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "Edit Custome" meneu item
-3) Tipe "1234" in "Edit Custome" field 
-4) Push "Submit" button</t>
-  </si>
-  <si>
-    <t>"Edit Customer Form" doesn't redirect to "Edit Customer Page" if valid data tiped in "Customer ID" field</t>
-  </si>
-  <si>
     <t>NC39</t>
   </si>
   <si>
@@ -564,24 +315,12 @@
     <t>Email rejected, "Email-ID is not valid" Error message</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Customer" meneu item
-3) Tipe "johndoe_273@gmail..com" in "Email" field 
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Email" field accept Email witht invalid domain part in "Add New Customer" form</t>
   </si>
   <si>
     <t>NC38</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Customer" meneu item
-3) Tipe ".johndoe_273@gmail.com" in "Email" field 
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Email" field accept Email witht Invalid local part in "Add New Customer" form</t>
   </si>
   <si>
@@ -591,22 +330,10 @@
     <t>Minor</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Customer" meneu item
-3) Tipe "151 46 70 8700" in "Telephone Number" field 
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>Wrong error message shown if "Telephone Number" field contains space character in "Add New Customer" form</t>
   </si>
   <si>
     <t>NC31</t>
-  </si>
-  <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Customer" meneu item
-3) Tipe " 15146708700" in "Telephone Number" field (start with space character)
-4) Press "TAB" and move to next field</t>
   </si>
   <si>
     <t>Wrong error message shown if "Telephone Number" field start with space character in "Add New Customer" form</t>
@@ -629,12 +356,6 @@
     <t>NC26</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Customer" meneu item
-3) Tipe " 11111" in "State" field (start with space character)
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>Wrong error message shown if "PIN" field start with space character in "Add New Customer" form</t>
   </si>
   <si>
@@ -644,36 +365,18 @@
     <t>"Numbers are not allowed" error message</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Customer" meneu item
-3) Tipe " Califirnia" in "State" field (start with space character)
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>Wrong error message shown if "State" field start with space character in "Add New Customer" form</t>
   </si>
   <si>
     <t>City data accepted</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Customer" meneu item
-3) Tipe "Mountain View" in "City" field
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>Space character not alloud in "City" field string in "Add New Customer" form</t>
   </si>
   <si>
     <t>NC14</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Customer" meneu item
-3) Tipe " MountainView" in "City" field (start with space character)
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>Wrong error message shown if "City" field start with space character in "Add New Customer" form</t>
   </si>
   <si>
@@ -683,12 +386,6 @@
     <t>"Required field" Error message</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Navigate mouse pointer over the "Addres" field and select it
-3) Do not tipe any value in  "Address" field
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Addres" field is not implemented as required field in "Add New Customer" form</t>
   </si>
   <si>
@@ -698,22 +395,10 @@
     <t xml:space="preserve"> "Address" field accepted</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Customer" meneu item
-3) Tipe " Amphitheatre Pkwy" in "Address" field (start with space character)
-4) Press "TAB" and move to next field</t>
-  </si>
-  <si>
     <t>"Address" field accept data starting with space character in "Add New Customer" form</t>
   </si>
   <si>
     <t>NC4</t>
-  </si>
-  <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Customer" meneu item
-3) Tipe " John" in "Customer Name" field (start with space character)
-4) Press "TAB" and move to next field</t>
   </si>
   <si>
     <t>Wrong error message shown if "Customer Name" field start with space character in "Add New Customer" form</t>
@@ -743,12 +428,6 @@
     <t>"John Doe" name exapted</t>
   </si>
   <si>
-    <t>1) http://demo_.com/V1/html/Managerhomepage.php
-2) Select "New Customer" meneu item
-3) Tipe John Doe in "Customer Name" field
-4) "Numbers are not allowed" error message displayed</t>
-  </si>
-  <si>
     <t>"Customer Name" field doesn’t accept space characters on "New Customer" page in "Add New Customer" form</t>
   </si>
   <si>
@@ -757,9 +436,6 @@
 3)  Navigate mouse pointer over the "Delete Account" menu item</t>
   </si>
   <si>
-    <t xml:space="preserve">Highlighting of "New Account" menu item from vertical navigation menu on Manager home page inconsistency with other menu item </t>
-  </si>
-  <si>
     <t>1) http://demo_.com/V1/html/Managerhomepage.php
 2) Navigate mouse pointer over the "New Account" menu item
 3)  Navigate mouse pointer over the "Delete Account" menu item</t>
@@ -778,17 +454,11 @@
 3)  Navigate mouse pointer over the "Delete Account" menu item</t>
   </si>
   <si>
-    <t xml:space="preserve">Highlighting of "Edit Cuctomers" menu item from vertical navigation menu on Manager home page inconsistency with other menu item </t>
-  </si>
-  <si>
     <t>1) http://demo_.com/V1/html/Managerhomepage.php
 2) Navigate mouse pointer over the "New Cuctomers" menu item
 3)  Navigate mouse pointer over the "Delete Account" menu item</t>
   </si>
   <si>
-    <t xml:space="preserve">Highlighting of "New Cuctomers" menu item from vertical navigation menu on Manager home page inconsistency with other menu item </t>
-  </si>
-  <si>
     <t>1) http://demo_.com/V1/html/Managerhomepage.php
 2) http://demo_.com/V1/html/addcustomerpage.php
 3) Compare navigation menu stile</t>
@@ -867,6 +537,336 @@
   </si>
   <si>
     <t>NA10</t>
+  </si>
+  <si>
+    <t>"Edit Account Form" doesn't redirect to "Edit Account Page" if valid data typed in "Account No" field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Edit Account" meneu item
+3) Type "360560330396" in "Account No" field 
+4) Push "Submit" button</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Edit Account" meneu item
+3) Type " 36056033039" in "Account No" field (start with space character)
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Edit Account" meneu item
+3) Type "36056 033039" in "Account No" field 
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>"Delete Account Form" doesn't delete selected account if valid data typed in "Account No" field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Delete Account" meneu item
+3) Type "360560330396" in "Account No" field 
+4) Push "Submit" button</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Delete Account" meneu item
+3) Type " 36056033039" in "Account No" field (start with space character)
+4) Press "TAB" and move to "Submit" button</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Deletr Account" meneu item
+3) Type "36056 033039" in "Account No" field 
+4) Press "TAB" and move to "Submit" button</t>
+  </si>
+  <si>
+    <t>"Delete Customer Form" doesn't delete  selected account if valid data typed in "Customer ID" field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Delete Custome" meneu item
+3) Type "1234" in "Customer ID" field 
+4) Push "Submit" button</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Delete Customer" meneu item
+3) Type " 1234" in "Customer ID" field (start with space character)
+4) Press "TAB" and move to "Submit" button</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Delete Customer" meneu item
+3) Type "12 34" in "Customer ID" field
+4) Press "TAB" and move to "Submit" button</t>
+  </si>
+  <si>
+    <t>"Mini Statement" doesn't displayed valid data typed in "Account No" field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Mini Statement" meneu item
+3) Type "360560330396" in "Account No" field 
+4) Push "Submit" button</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Mini Statement" meneu item
+3) Type " 36056033039" in "Account No" field (start with space character)
+4) Press "TAB" and move to "Submit" button</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Mini Statement" meneu item
+3) Type "36056 033039" in "Account No" field 
+4) Press "TAB" and move to "Submit" button</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Customized Statement" meneu item
+3) Type " 36056033039" in "Account No" field (start with space character)
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Customized Statement" meneu item
+3) Type "36056 033039" in "Account No" field
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Amount Lower Limit" meneu item
+3) Type "S00" in "Amount Lower Limit" field
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Amount Lower Limit" meneu item
+3) Type "500$" in "Amount Lower Limit" field
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Amount Lower Limit" meneu item
+3) Type " 500" in "Amount Lower Limit" field (start with space character)
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Amount Lower Limit" meneu item
+3) Type "50 0" in "Amount Lower Limit" field
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Amount Lower Limit" meneu item
+3) Type "050" in "Amount Lower Limit" field
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Amount Lower Limit" meneu item
+3) Do not type any value in  "Amount Lower Limit" field
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Number of Transaction" meneu item
+3) Type "1o" in "Number of Transaction" field
+4) Press "TAB" and move to "Submit" button</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Number of Transaction" meneu item
+3) Type "1'0" in "Number of Transaction" field
+4) Press "TAB" and move to "Submit" button</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Number of Transaction" meneu item
+3) Type " 10" in "Number of Transaction" field (start with space character)
+4) Press "TAB" and move to "Submit" button</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Number of Transaction" meneu item
+3) Type "1 0" in "Number of Transaction" field
+4) Press "TAB" and move to "Submit" button</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Number of Transaction" meneu item
+3) Type "01" in "Number of Transaction" field
+4) Press "TAB" and move to "Submit" button</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Number of Transaction" meneu item
+3) Do not type any value in  "Number of Transaction" field
+4) Press "TAB" and move to "Submit" button</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Customer" meneu item
+3) Type John Doe in "Customer Name" field
+4) "Numbers are not allowed" error message displayed</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Customer" meneu item
+3) Type " John" in "Customer Name" field (start with space character)
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Customer" meneu item
+3) Type " Amphitheatre Pkwy" in "Address" field (start with space character)
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Navigate mouse pointer over the "Addres" field and select it
+3) Do not type any value in  "Address" field
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Customer" meneu item
+3) Type " MountainView" in "City" field (start with space character)
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Customer" meneu item
+3) Type "Mountain View" in "City" field
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Customer" meneu item
+3) Type " Califirnia" in "State" field (start with space character)
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Customer" meneu item
+3) Type " 11111" in "State" field (start with space character)
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Customer" meneu item
+3) Type " 15146708700" in "Telephone Number" field (start with space character)
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Customer" meneu item
+3) Type "151 46 70 8700" in "Telephone Number" field 
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Customer" meneu item
+3) Type ".johndoe_273@gmail.com" in "Email" field 
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Customer" meneu item
+3) Type "johndoe_273@gmail..com" in "Email" field 
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>"Edit Customer Form" doesn't redirect to "Edit Customer Page" if valid data typed in "Customer ID" field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Edit Customer" meneu item
+3) Type " 1234" in "Customer ID" field (start with space character)
+4) Press "TAB" and move to "Submit" button</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Edit Customer" meneu item
+3) Type "12 34" in "Customer ID" field
+4) Press "TAB" and move to "Submit" button</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Account" meneu item
+3) Type "I234" in "Customer ID" field
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Account" meneu item
+3) Type "(234" in "Customer ID" field
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Account" meneu item
+3) Type " 1234" in "Customer ID" field
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Account" meneu item
+3) Type "12 34" in "Customer ID" field
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Account" meneu item
+3) Do not type any value in "Customer ID" field
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Account" meneu item
+3) Type "S00" in "Initial deposit" field
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Account" meneu item
+3) Type "500$" in "Initial deposit" field
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Account" meneu item
+3) Type " 500" in "Initial deposit" field
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Account" meneu item
+3) Type "50 0" in "Initial deposit" field
+4) Press "TAB" and move to next field</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "New Account" meneu item
+3) Do not type any value in "Initial deposit" field
+3) Press "TAB" and move to "Submit" button</t>
+  </si>
+  <si>
+    <t>1) http://demo_.com/V1/html/Managerhomepage.php
+2) Select "Edit Custome" meneu item
+3) Type "1234" in "Edit Custome" field 
+4) Push "Submit" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highlighting of "Edit Customers" menu item from vertical navigation menu on Manager home page inconsistent with other menu item </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highlighting of "New Customers" menu item from vertical navigation menu on Manager home page inconsistent with other menu item </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highlighting of "New Account" menu item from vertical navigation menu on Manager home page inconsistent with other menu item </t>
   </si>
 </sst>
 </file>
@@ -1727,9 +1727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71872AA7-83FD-49AB-9DCC-9CA36B06186F}">
   <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,43 +1748,43 @@
   <sheetData>
     <row r="1" spans="1:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -1792,10 +1792,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>3</v>
@@ -1827,10 +1827,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>3</v>
@@ -1862,10 +1862,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>3</v>
@@ -1897,10 +1897,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>3</v>
@@ -1932,10 +1932,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>3</v>
@@ -1967,10 +1967,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>3</v>
@@ -2002,10 +2002,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -2037,10 +2037,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -2072,16 +2072,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>0</v>
@@ -2107,16 +2107,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>3</v>
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>0</v>
@@ -2146,16 +2146,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -2173,7 +2173,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>0</v>
@@ -2185,16 +2185,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>3</v>
@@ -2212,7 +2212,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>0</v>
@@ -2224,16 +2224,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>0</v>
@@ -2263,16 +2263,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -2290,7 +2290,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>0</v>
@@ -2302,16 +2302,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>0</v>
@@ -2339,16 +2339,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -2366,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>0</v>
@@ -2378,16 +2378,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -2405,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>0</v>
@@ -2417,16 +2417,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>3</v>
@@ -2456,16 +2456,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>0</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -2483,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>0</v>
@@ -2495,16 +2495,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -2522,7 +2522,7 @@
         <v>2</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>0</v>
@@ -2534,16 +2534,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>0</v>
@@ -2573,16 +2573,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>2</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>0</v>
@@ -2612,16 +2612,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -2639,7 +2639,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>0</v>
@@ -2651,16 +2651,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>2</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>0</v>
@@ -2690,16 +2690,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>2</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>0</v>
@@ -2729,16 +2729,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>2</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>0</v>
@@ -2768,16 +2768,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>124</v>
+        <v>211</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>0</v>
@@ -2807,16 +2807,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>0</v>
@@ -2846,16 +2846,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>2</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>0</v>
@@ -2885,16 +2885,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>0</v>
@@ -2912,7 +2912,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>0</v>
@@ -2924,16 +2924,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>0</v>
@@ -2951,7 +2951,7 @@
         <v>2</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>0</v>
@@ -2963,16 +2963,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>0</v>
@@ -2990,7 +2990,7 @@
         <v>2</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>0</v>
@@ -3002,16 +3002,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>2</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>0</v>
@@ -3041,16 +3041,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>107</v>
+        <v>218</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>2</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>0</v>
@@ -3080,16 +3080,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         <v>2</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>0</v>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>3</v>
@@ -3146,7 +3146,7 @@
         <v>2</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>2</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>0</v>
@@ -3197,16 +3197,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>0</v>
@@ -3224,7 +3224,7 @@
         <v>2</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>0</v>
@@ -3236,16 +3236,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>0</v>
@@ -3254,16 +3254,16 @@
         <v>0</v>
       </c>
       <c r="H40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>0</v>
@@ -3275,16 +3275,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>2</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>0</v>
@@ -3341,7 +3341,7 @@
         <v>2</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>0</v>
@@ -3353,16 +3353,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -3380,7 +3380,7 @@
         <v>2</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>2</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>0</v>
@@ -3431,16 +3431,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>0</v>
@@ -3458,7 +3458,7 @@
         <v>2</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>0</v>
@@ -3470,16 +3470,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>0</v>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -3497,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         <v>2</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>0</v>
@@ -3548,16 +3548,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>0</v>
@@ -3575,7 +3575,7 @@
         <v>2</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>0</v>
@@ -3587,16 +3587,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>2</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>0</v>
@@ -3626,16 +3626,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>0</v>
@@ -3665,13 +3665,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>5</v>
@@ -3692,7 +3692,7 @@
         <v>2</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>0</v>
@@ -3704,13 +3704,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>5</v>
@@ -3731,7 +3731,7 @@
         <v>2</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>5</v>
@@ -3770,7 +3770,7 @@
         <v>2</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>0</v>
@@ -3782,13 +3782,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>5</v>
@@ -3809,7 +3809,7 @@
         <v>2</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>0</v>
@@ -3821,13 +3821,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>5</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>0</v>
@@ -3860,16 +3860,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>2</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>0</v>
@@ -3899,13 +3899,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>5</v>
@@ -3926,7 +3926,7 @@
         <v>2</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>0</v>
@@ -3938,13 +3938,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>5</v>
@@ -3965,7 +3965,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>0</v>
@@ -3977,13 +3977,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>5</v>
@@ -4004,7 +4004,7 @@
         <v>2</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>0</v>
@@ -4016,13 +4016,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>5</v>
@@ -4043,7 +4043,7 @@
         <v>2</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>5</v>
@@ -4082,7 +4082,7 @@
         <v>2</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>0</v>
@@ -4094,10 +4094,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>6</v>
